--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Lrrc4b</t>
   </si>
   <si>
     <t>Ptprf</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1436256666666667</v>
+        <v>0.063665</v>
       </c>
       <c r="H2">
-        <v>0.4308770000000001</v>
+        <v>0.190995</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2699335606864689</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.269933560686469</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2171733333333334</v>
+        <v>0.4211356666666666</v>
       </c>
       <c r="N2">
-        <v>0.6515200000000001</v>
+        <v>1.263407</v>
       </c>
       <c r="O2">
-        <v>0.03179704241434194</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="P2">
-        <v>0.03179704241434193</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="Q2">
-        <v>0.03119166478222223</v>
+        <v>0.02681160221833333</v>
       </c>
       <c r="R2">
-        <v>0.2807249830400001</v>
+        <v>0.241304419965</v>
       </c>
       <c r="S2">
-        <v>0.03179704241434194</v>
+        <v>0.01609413833545302</v>
       </c>
       <c r="T2">
-        <v>0.03179704241434193</v>
+        <v>0.01609413833545302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1436256666666667</v>
+        <v>0.063665</v>
       </c>
       <c r="H3">
-        <v>0.4308770000000001</v>
+        <v>0.190995</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2699335606864689</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.269933560686469</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>16.402974</v>
       </c>
       <c r="O3">
-        <v>0.8005372973958559</v>
+        <v>0.7740876954075475</v>
       </c>
       <c r="P3">
-        <v>0.8005372973958557</v>
+        <v>0.7740876954075474</v>
       </c>
       <c r="Q3">
-        <v>0.7852960253553334</v>
+        <v>0.34809844657</v>
       </c>
       <c r="R3">
-        <v>7.067664228198002</v>
+        <v>3.13288601913</v>
       </c>
       <c r="S3">
-        <v>0.8005372973958559</v>
+        <v>0.2089522479049421</v>
       </c>
       <c r="T3">
-        <v>0.8005372973958557</v>
+        <v>0.2089522479049421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1436256666666667</v>
+        <v>0.063665</v>
       </c>
       <c r="H4">
-        <v>0.4308770000000001</v>
+        <v>0.190995</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2699335606864689</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.269933560686469</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01599466666666667</v>
+        <v>0.3825986666666667</v>
       </c>
       <c r="N4">
-        <v>0.047984</v>
+        <v>1.147796</v>
       </c>
       <c r="O4">
-        <v>0.002341830309445272</v>
+        <v>0.05416668711649494</v>
       </c>
       <c r="P4">
-        <v>0.002341830309445271</v>
+        <v>0.05416668711649493</v>
       </c>
       <c r="Q4">
-        <v>0.002297244663111112</v>
+        <v>0.02435814411333333</v>
       </c>
       <c r="R4">
-        <v>0.020675201968</v>
+        <v>0.21922329702</v>
       </c>
       <c r="S4">
-        <v>0.002341830309445272</v>
+        <v>0.01462140672394536</v>
       </c>
       <c r="T4">
-        <v>0.002341830309445271</v>
+        <v>0.01462140672394536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -726,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1436256666666667</v>
+        <v>0.063665</v>
       </c>
       <c r="H5">
-        <v>0.4308770000000001</v>
+        <v>0.190995</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2699335606864689</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.269933560686469</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,42 +741,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.108915333333333</v>
+        <v>0.7919649999999999</v>
       </c>
       <c r="N5">
-        <v>3.326746</v>
+        <v>2.375895</v>
       </c>
       <c r="O5">
-        <v>0.1623598410850663</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="P5">
-        <v>0.1623598410850662</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="Q5">
-        <v>0.1592687040268889</v>
+        <v>0.050420451725</v>
       </c>
       <c r="R5">
-        <v>1.433418336242</v>
+        <v>0.4537840655249999</v>
       </c>
       <c r="S5">
-        <v>0.1623598410850663</v>
+        <v>0.03026576772212845</v>
       </c>
       <c r="T5">
-        <v>0.1623598410850662</v>
+        <v>0.03026576772212846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,43 +788,477 @@
         <v>0.1436256666666667</v>
       </c>
       <c r="H6">
-        <v>0.4308770000000001</v>
+        <v>0.430877</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6089592022194491</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6089592022194491</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.020244</v>
+        <v>0.4211356666666666</v>
       </c>
       <c r="N6">
-        <v>0.060732</v>
+        <v>1.263407</v>
       </c>
       <c r="O6">
-        <v>0.002963988795290727</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="P6">
-        <v>0.002963988795290726</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="Q6">
-        <v>0.002907557996000001</v>
+        <v>0.06048589088211111</v>
       </c>
       <c r="R6">
-        <v>0.026168021964</v>
+        <v>0.5443730179389999</v>
       </c>
       <c r="S6">
-        <v>0.002963988795290727</v>
+        <v>0.03630772556121883</v>
       </c>
       <c r="T6">
-        <v>0.002963988795290726</v>
+        <v>0.03630772556121883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1436256666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.430877</v>
+      </c>
+      <c r="I7">
+        <v>0.6089592022194491</v>
+      </c>
+      <c r="J7">
+        <v>0.6089592022194491</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.467658</v>
+      </c>
+      <c r="N7">
+        <v>16.402974</v>
+      </c>
+      <c r="O7">
+        <v>0.7740876954075475</v>
+      </c>
+      <c r="P7">
+        <v>0.7740876954075474</v>
+      </c>
+      <c r="Q7">
+        <v>0.7852960253553334</v>
+      </c>
+      <c r="R7">
+        <v>7.067664228198001</v>
+      </c>
+      <c r="S7">
+        <v>0.4713878254432721</v>
+      </c>
+      <c r="T7">
+        <v>0.471387825443272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1436256666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.430877</v>
+      </c>
+      <c r="I8">
+        <v>0.6089592022194491</v>
+      </c>
+      <c r="J8">
+        <v>0.6089592022194491</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3825986666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.147796</v>
+      </c>
+      <c r="O8">
+        <v>0.05416668711649494</v>
+      </c>
+      <c r="P8">
+        <v>0.05416668711649493</v>
+      </c>
+      <c r="Q8">
+        <v>0.05495098856577778</v>
+      </c>
+      <c r="R8">
+        <v>0.494558897092</v>
+      </c>
+      <c r="S8">
+        <v>0.03298530257333127</v>
+      </c>
+      <c r="T8">
+        <v>0.03298530257333127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1436256666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.430877</v>
+      </c>
+      <c r="I9">
+        <v>0.6089592022194491</v>
+      </c>
+      <c r="J9">
+        <v>0.6089592022194491</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7919649999999999</v>
+      </c>
+      <c r="N9">
+        <v>2.375895</v>
+      </c>
+      <c r="O9">
+        <v>0.1121230262926903</v>
+      </c>
+      <c r="P9">
+        <v>0.1121230262926903</v>
+      </c>
+      <c r="Q9">
+        <v>0.1137465011016667</v>
+      </c>
+      <c r="R9">
+        <v>1.023718509915</v>
+      </c>
+      <c r="S9">
+        <v>0.06827834864162698</v>
+      </c>
+      <c r="T9">
+        <v>0.06827834864162698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02856366666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.085691</v>
+      </c>
+      <c r="I10">
+        <v>0.1211072370940821</v>
+      </c>
+      <c r="J10">
+        <v>0.1211072370940821</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4211356666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.263407</v>
+      </c>
+      <c r="O10">
+        <v>0.05962259118326733</v>
+      </c>
+      <c r="P10">
+        <v>0.05962259118326733</v>
+      </c>
+      <c r="Q10">
+        <v>0.01202917880411111</v>
+      </c>
+      <c r="R10">
+        <v>0.108262609237</v>
+      </c>
+      <c r="S10">
+        <v>0.007220727286595484</v>
+      </c>
+      <c r="T10">
+        <v>0.007220727286595485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02856366666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.085691</v>
+      </c>
+      <c r="I11">
+        <v>0.1211072370940821</v>
+      </c>
+      <c r="J11">
+        <v>0.1211072370940821</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.467658</v>
+      </c>
+      <c r="N11">
+        <v>16.402974</v>
+      </c>
+      <c r="O11">
+        <v>0.7740876954075475</v>
+      </c>
+      <c r="P11">
+        <v>0.7740876954075474</v>
+      </c>
+      <c r="Q11">
+        <v>0.1561763605593333</v>
+      </c>
+      <c r="R11">
+        <v>1.405587245034</v>
+      </c>
+      <c r="S11">
+        <v>0.09374762205933346</v>
+      </c>
+      <c r="T11">
+        <v>0.09374762205933344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02856366666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.085691</v>
+      </c>
+      <c r="I12">
+        <v>0.1211072370940821</v>
+      </c>
+      <c r="J12">
+        <v>0.1211072370940821</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3825986666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.147796</v>
+      </c>
+      <c r="O12">
+        <v>0.05416668711649494</v>
+      </c>
+      <c r="P12">
+        <v>0.05416668711649493</v>
+      </c>
+      <c r="Q12">
+        <v>0.01092842078177778</v>
+      </c>
+      <c r="R12">
+        <v>0.09835578703600001</v>
+      </c>
+      <c r="S12">
+        <v>0.006559977819218314</v>
+      </c>
+      <c r="T12">
+        <v>0.006559977819218314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02856366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.085691</v>
+      </c>
+      <c r="I13">
+        <v>0.1211072370940821</v>
+      </c>
+      <c r="J13">
+        <v>0.1211072370940821</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7919649999999999</v>
+      </c>
+      <c r="N13">
+        <v>2.375895</v>
+      </c>
+      <c r="O13">
+        <v>0.1121230262926903</v>
+      </c>
+      <c r="P13">
+        <v>0.1121230262926903</v>
+      </c>
+      <c r="Q13">
+        <v>0.02262142427166667</v>
+      </c>
+      <c r="R13">
+        <v>0.203592818445</v>
+      </c>
+      <c r="S13">
+        <v>0.01357890992893484</v>
+      </c>
+      <c r="T13">
+        <v>0.01357890992893484</v>
       </c>
     </row>
   </sheetData>
